--- a/data/trans_orig/P70B_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6054D06-6A1E-410A-B420-F8B9DD4FBB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{451B2D52-4FFD-4C70-8B67-C24BB06CB06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B0E4D822-E8B0-482A-942D-E0B50F02B7E0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F44F63D-21A6-4EFD-8105-6CB7B2E4A287}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="332">
   <si>
     <t>Población según el nivel de informado que están con respecto a los riesgos que implican el uso de los materiales, instrumentos o productos que utiliza en su trabajo en 2007 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>12,13%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
   </si>
   <si>
     <t>29,77%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>Mal o insuficientemente informado</t>
@@ -104,28 +104,28 @@
     <t>24,26%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
   </si>
   <si>
     <t>27,12%</t>
   </si>
   <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
   </si>
   <si>
     <t>25,41%</t>
   </si>
   <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
   </si>
   <si>
     <t>Bien o suficientemente informado</t>
@@ -134,28 +134,25 @@
     <t>38,63%</t>
   </si>
   <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
   </si>
   <si>
     <t>28,05%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
   </si>
   <si>
     <t>34,37%</t>
   </si>
   <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
+    <t>39,68%</t>
   </si>
   <si>
     <t>Bastante o muy bien informado</t>
@@ -164,28 +161,28 @@
     <t>24,98%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,46 +194,46 @@
     <t>7,15%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
   </si>
   <si>
     <t>10,54%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>7,75%</t>
@@ -245,61 +242,61 @@
     <t>5,48%</t>
   </si>
   <si>
-    <t>11,12%</t>
+    <t>10,7%</t>
   </si>
   <si>
     <t>42,56%</t>
   </si>
   <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
   </si>
   <si>
     <t>41,17%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
   </si>
   <si>
     <t>43,92%</t>
   </si>
   <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
   </si>
   <si>
     <t>34,24%</t>
   </si>
   <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
   </si>
   <si>
     <t>40,72%</t>
   </si>
   <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -311,7 +308,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,54%</t>
+    <t>3,96%</t>
   </si>
   <si>
     <t>6,39%</t>
@@ -320,97 +317,97 @@
     <t>2,14%</t>
   </si>
   <si>
-    <t>12,64%</t>
+    <t>12,74%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
   </si>
   <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
   </si>
   <si>
     <t>19,38%</t>
   </si>
   <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
   </si>
   <si>
     <t>50,17%</t>
   </si>
   <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
   </si>
   <si>
     <t>35,09%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
   </si>
   <si>
     <t>30,89%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -419,607 +416,619 @@
     <t>3,52%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
   </si>
   <si>
     <t>11,72%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
   </si>
   <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
   </si>
   <si>
     <t>38,87%</t>
   </si>
   <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
   </si>
   <si>
     <t>38,74%</t>
   </si>
   <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
   </si>
   <si>
     <t>43,87%</t>
   </si>
   <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1434,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E62CB75-8330-4E01-BA8B-820343A5FECD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853949EC-5866-4528-943C-55D65A95AF25}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1693,16 +1702,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>39</v>
@@ -1711,13 +1720,13 @@
         <v>40193</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -1726,13 +1735,13 @@
         <v>16351</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -1741,13 +1750,13 @@
         <v>56544</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1762,13 +1771,13 @@
         <v>160892</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>96</v>
@@ -1777,13 +1786,13 @@
         <v>108548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>249</v>
@@ -1792,18 +1801,18 @@
         <v>269440</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1815,13 +1824,13 @@
         <v>19272</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -1830,13 +1839,13 @@
         <v>22404</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>41</v>
@@ -1845,13 +1854,13 @@
         <v>41676</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1866,13 +1875,13 @@
         <v>17162</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -1881,13 +1890,13 @@
         <v>14011</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -1896,13 +1905,13 @@
         <v>31172</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,13 +1926,13 @@
         <v>114663</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -1932,13 +1941,13 @@
         <v>50985</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>158</v>
@@ -1947,19 +1956,19 @@
         <v>165648</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>107</v>
@@ -1968,13 +1977,13 @@
         <v>118342</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -1983,13 +1992,13 @@
         <v>45515</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>151</v>
@@ -1998,13 +2007,13 @@
         <v>163857</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,13 +2028,13 @@
         <v>269439</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -2034,13 +2043,13 @@
         <v>132915</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>380</v>
@@ -2049,18 +2058,18 @@
         <v>402354</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2072,13 +2081,13 @@
         <v>1936</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2087,13 +2096,13 @@
         <v>6047</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -2102,13 +2111,13 @@
         <v>7983</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,13 +2132,13 @@
         <v>23680</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -2138,13 +2147,13 @@
         <v>28350</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -2153,13 +2162,13 @@
         <v>52031</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,13 +2183,13 @@
         <v>87230</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -2189,13 +2198,13 @@
         <v>38256</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>123</v>
@@ -2204,19 +2213,19 @@
         <v>125487</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>58</v>
@@ -2225,13 +2234,13 @@
         <v>61016</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -2240,13 +2249,13 @@
         <v>21912</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -2255,13 +2264,13 @@
         <v>82928</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,13 +2285,13 @@
         <v>173862</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -2291,13 +2300,13 @@
         <v>94566</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>260</v>
@@ -2306,18 +2315,18 @@
         <v>268428</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2329,13 +2338,13 @@
         <v>7686</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2347,7 +2356,7 @@
         <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>129</v>
@@ -2473,7 +2482,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>67</v>
@@ -2533,13 +2542,13 @@
         <v>218132</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>134</v>
@@ -2548,13 +2557,13 @@
         <v>132994</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>347</v>
@@ -2563,13 +2572,13 @@
         <v>351126</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,7 +2598,7 @@
         <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>162</v>
@@ -2601,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>163</v>
@@ -2619,7 +2628,7 @@
         <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>166</v>
@@ -2640,7 +2649,7 @@
         <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>168</v>
@@ -2652,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>163</v>
@@ -2670,7 +2679,7 @@
         <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>170</v>
@@ -2730,7 +2739,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>82</v>
@@ -2790,13 +2799,13 @@
         <v>113031</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -2805,13 +2814,13 @@
         <v>50426</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>158</v>
@@ -2820,13 +2829,13 @@
         <v>163457</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,10 +2870,10 @@
         <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2873,13 +2882,13 @@
         <v>4823</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,7 +2903,7 @@
         <v>27096</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>198</v>
@@ -2930,7 +2939,7 @@
         <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2954,13 @@
         <v>70150</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>41</v>
@@ -2960,10 +2969,10 @@
         <v>41970</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>210</v>
@@ -2987,7 +2996,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>49</v>
@@ -3047,13 +3056,13 @@
         <v>152106</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>79</v>
@@ -3062,13 +3071,13 @@
         <v>81789</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>225</v>
@@ -3077,13 +3086,13 @@
         <v>233895</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,7 +3115,7 @@
         <v>225</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -3115,13 +3124,13 @@
         <v>5309</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -3130,13 +3139,13 @@
         <v>10276</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3160,13 @@
         <v>26881</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H35" s="7">
         <v>24</v>
@@ -3166,13 +3175,13 @@
         <v>27354</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M35" s="7">
         <v>49</v>
@@ -3181,13 +3190,13 @@
         <v>54235</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,13 +3211,13 @@
         <v>124974</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H36" s="7">
         <v>75</v>
@@ -3217,13 +3226,13 @@
         <v>79820</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M36" s="7">
         <v>194</v>
@@ -3232,10 +3241,10 @@
         <v>204794</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>249</v>
@@ -3244,7 +3253,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>154</v>
@@ -3304,13 +3313,13 @@
         <v>320253</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>160</v>
@@ -3319,13 +3328,13 @@
         <v>170827</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>462</v>
@@ -3334,13 +3343,13 @@
         <v>491080</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,13 +3366,13 @@
         <v>7041</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>127</v>
+        <v>260</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H39" s="7">
         <v>7</v>
@@ -3372,13 +3381,13 @@
         <v>7536</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M39" s="7">
         <v>14</v>
@@ -3387,13 +3396,13 @@
         <v>14577</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3417,13 @@
         <v>21100</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H40" s="7">
         <v>17</v>
@@ -3423,13 +3432,13 @@
         <v>18872</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M40" s="7">
         <v>38</v>
@@ -3438,13 +3447,13 @@
         <v>39972</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3468,13 @@
         <v>129670</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="H41" s="7">
         <v>76</v>
@@ -3474,13 +3483,13 @@
         <v>80369</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>280</v>
+        <v>109</v>
       </c>
       <c r="M41" s="7">
         <v>201</v>
@@ -3489,19 +3498,19 @@
         <v>210039</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
         <v>300</v>
@@ -3510,13 +3519,13 @@
         <v>308827</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H42" s="7">
         <v>126</v>
@@ -3525,13 +3534,13 @@
         <v>130172</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M42" s="7">
         <v>426</v>
@@ -3540,13 +3549,13 @@
         <v>438999</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3570,13 @@
         <v>466638</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" s="7">
         <v>226</v>
@@ -3576,13 +3585,13 @@
         <v>236949</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M43" s="7">
         <v>679</v>
@@ -3591,13 +3600,13 @@
         <v>703587</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,28 +3623,28 @@
         <v>64157</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H44" s="7">
         <v>73</v>
       </c>
       <c r="I44" s="7">
-        <v>77508</v>
+        <v>77507</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M44" s="7">
         <v>131</v>
@@ -3644,13 +3653,13 @@
         <v>141665</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3674,13 @@
         <v>191827</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H45" s="7">
         <v>158</v>
@@ -3680,13 +3689,13 @@
         <v>167976</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M45" s="7">
         <v>340</v>
@@ -3695,13 +3704,13 @@
         <v>359803</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3725,13 @@
         <v>724712</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H46" s="7">
         <v>378</v>
@@ -3731,13 +3740,13 @@
         <v>392253</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M46" s="7">
         <v>1075</v>
@@ -3746,19 +3755,19 @@
         <v>1116965</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="7">
         <v>856</v>
@@ -3767,28 +3776,28 @@
         <v>893658</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H47" s="7">
         <v>358</v>
       </c>
       <c r="I47" s="7">
-        <v>371279</v>
+        <v>371278</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M47" s="7">
         <v>1214</v>
@@ -3797,13 +3806,13 @@
         <v>1264937</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,28 +3827,28 @@
         <v>1874354</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48" s="7">
         <v>967</v>
       </c>
       <c r="I48" s="7">
-        <v>1009016</v>
+        <v>1009015</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M48" s="7">
         <v>2760</v>
@@ -3848,18 +3857,18 @@
         <v>2883369</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2007-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{451B2D52-4FFD-4C70-8B67-C24BB06CB06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C580499-6CF9-4B8A-BBCA-7BEDF530B88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F44F63D-21A6-4EFD-8105-6CB7B2E4A287}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D6D8C920-844E-40FF-A9E9-3903B39B1D49}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="330">
   <si>
     <t>Población según el nivel de informado que están con respecto a los riesgos que implican el uso de los materiales, instrumentos o productos que utiliza en su trabajo en 2007 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>12,13%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
   </si>
   <si>
     <t>29,77%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
   </si>
   <si>
     <t>Mal o insuficientemente informado</t>
@@ -104,28 +104,28 @@
     <t>24,26%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
   </si>
   <si>
     <t>27,12%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
   </si>
   <si>
     <t>25,41%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
   </si>
   <si>
     <t>Bien o suficientemente informado</t>
@@ -134,25 +134,28 @@
     <t>38,63%</t>
   </si>
   <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
   </si>
   <si>
     <t>28,05%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
   </si>
   <si>
     <t>34,37%</t>
   </si>
   <si>
-    <t>39,68%</t>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
   </si>
   <si>
     <t>Bastante o muy bien informado</t>
@@ -161,28 +164,28 @@
     <t>24,98%</t>
   </si>
   <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,109 +197,109 @@
     <t>7,15%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>10,54%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>42,56%</t>
   </si>
   <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
   </si>
   <si>
     <t>41,17%</t>
   </si>
   <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
   </si>
   <si>
     <t>43,92%</t>
   </si>
   <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
   </si>
   <si>
     <t>34,24%</t>
   </si>
   <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
   </si>
   <si>
     <t>40,72%</t>
   </si>
   <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -308,727 +311,718 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,96%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
   </si>
   <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>38,87%</t>
   </si>
   <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
   </si>
   <si>
     <t>38,74%</t>
   </si>
   <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
   </si>
   <si>
     <t>43,87%</t>
   </si>
   <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1443,7 +1437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853949EC-5866-4528-943C-55D65A95AF25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1822EED7-203A-4C1E-9099-720086BB4A01}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1702,16 +1696,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>39</v>
@@ -1720,13 +1714,13 @@
         <v>40193</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -1735,13 +1729,13 @@
         <v>16351</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -1750,13 +1744,13 @@
         <v>56544</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,13 +1765,13 @@
         <v>160892</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>96</v>
@@ -1786,13 +1780,13 @@
         <v>108548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>249</v>
@@ -1801,18 +1795,18 @@
         <v>269440</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1824,13 +1818,13 @@
         <v>19272</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -1839,13 +1833,13 @@
         <v>22404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>41</v>
@@ -1854,13 +1848,13 @@
         <v>41676</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,13 +1869,13 @@
         <v>17162</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -1890,13 +1884,13 @@
         <v>14011</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -1905,13 +1899,13 @@
         <v>31172</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,13 +1920,13 @@
         <v>114663</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -1941,13 +1935,13 @@
         <v>50985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>158</v>
@@ -1956,19 +1950,19 @@
         <v>165648</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>107</v>
@@ -1977,13 +1971,13 @@
         <v>118342</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -1992,13 +1986,13 @@
         <v>45515</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>151</v>
@@ -2007,13 +2001,13 @@
         <v>163857</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,13 +2022,13 @@
         <v>269439</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -2043,13 +2037,13 @@
         <v>132915</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>380</v>
@@ -2058,18 +2052,18 @@
         <v>402354</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2081,13 +2075,13 @@
         <v>1936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2096,13 +2090,13 @@
         <v>6047</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -2111,13 +2105,13 @@
         <v>7983</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,13 +2126,13 @@
         <v>23680</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -2147,13 +2141,13 @@
         <v>28350</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -2162,13 +2156,13 @@
         <v>52031</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2177,13 @@
         <v>87230</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -2198,13 +2192,13 @@
         <v>38256</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>123</v>
@@ -2213,19 +2207,19 @@
         <v>125487</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>58</v>
@@ -2234,13 +2228,13 @@
         <v>61016</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -2249,13 +2243,13 @@
         <v>21912</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -2264,13 +2258,13 @@
         <v>82928</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,13 +2279,13 @@
         <v>173862</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -2300,13 +2294,13 @@
         <v>94566</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>260</v>
@@ -2315,18 +2309,18 @@
         <v>268428</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2338,13 +2332,13 @@
         <v>7686</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2353,13 +2347,13 @@
         <v>1917</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -2368,13 +2362,13 @@
         <v>9604</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2383,13 @@
         <v>35913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -2404,13 +2398,13 @@
         <v>31696</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -2419,10 +2413,10 @@
         <v>67609</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>141</v>
@@ -2482,7 +2476,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>67</v>
@@ -2491,13 +2485,13 @@
         <v>67020</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -2506,13 +2500,13 @@
         <v>38002</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -2521,13 +2515,13 @@
         <v>105022</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,13 +2536,13 @@
         <v>218132</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>134</v>
@@ -2557,13 +2551,13 @@
         <v>132994</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>347</v>
@@ -2572,18 +2566,18 @@
         <v>351126</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2595,13 +2589,13 @@
         <v>895</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2610,13 +2604,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -2625,13 +2619,13 @@
         <v>895</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2640,13 @@
         <v>964</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2661,13 +2655,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2676,13 +2670,13 @@
         <v>964</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2691,13 @@
         <v>28363</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -2712,13 +2706,13 @@
         <v>9025</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -2727,19 +2721,19 @@
         <v>37388</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>82</v>
@@ -2748,13 +2742,13 @@
         <v>82809</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>38</v>
@@ -2763,13 +2757,13 @@
         <v>41401</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>120</v>
@@ -2778,13 +2772,13 @@
         <v>124210</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2793,13 @@
         <v>113031</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -2814,13 +2808,13 @@
         <v>50426</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>158</v>
@@ -2829,18 +2823,18 @@
         <v>163457</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2852,13 +2846,13 @@
         <v>2841</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2867,13 +2861,13 @@
         <v>1982</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2906,10 +2900,10 @@
         <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -2918,13 +2912,13 @@
         <v>18255</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>43</v>
@@ -2933,13 +2927,13 @@
         <v>45351</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2948,13 @@
         <v>70150</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>41</v>
@@ -2969,13 +2963,13 @@
         <v>41970</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>109</v>
@@ -2984,19 +2978,19 @@
         <v>112120</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>49</v>
@@ -3005,13 +2999,13 @@
         <v>52020</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
@@ -3020,13 +3014,13 @@
         <v>19582</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>68</v>
@@ -3035,13 +3029,13 @@
         <v>71601</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3050,13 @@
         <v>152106</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>79</v>
@@ -3071,13 +3065,13 @@
         <v>81789</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>225</v>
@@ -3086,18 +3080,18 @@
         <v>233895</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3109,13 +3103,13 @@
         <v>4966</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -3127,10 +3121,10 @@
         <v>226</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -3139,13 +3133,13 @@
         <v>10276</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3154,13 @@
         <v>26881</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H35" s="7">
         <v>24</v>
@@ -3175,13 +3169,13 @@
         <v>27354</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M35" s="7">
         <v>49</v>
@@ -3190,13 +3184,13 @@
         <v>54235</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3205,13 @@
         <v>124974</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H36" s="7">
         <v>75</v>
@@ -3226,13 +3220,13 @@
         <v>79820</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M36" s="7">
         <v>194</v>
@@ -3241,19 +3235,19 @@
         <v>204794</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>154</v>
@@ -3262,13 +3256,13 @@
         <v>163432</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H37" s="7">
         <v>56</v>
@@ -3277,13 +3271,13 @@
         <v>58343</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>210</v>
@@ -3292,13 +3286,13 @@
         <v>221775</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,13 +3307,13 @@
         <v>320253</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>160</v>
@@ -3328,13 +3322,13 @@
         <v>170827</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>462</v>
@@ -3343,18 +3337,18 @@
         <v>491080</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3366,13 +3360,13 @@
         <v>7041</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H39" s="7">
         <v>7</v>
@@ -3381,13 +3375,13 @@
         <v>7536</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M39" s="7">
         <v>14</v>
@@ -3396,13 +3390,13 @@
         <v>14577</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3411,13 @@
         <v>21100</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H40" s="7">
         <v>17</v>
@@ -3432,13 +3426,13 @@
         <v>18872</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M40" s="7">
         <v>38</v>
@@ -3447,13 +3441,13 @@
         <v>39972</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3462,13 @@
         <v>129670</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H41" s="7">
         <v>76</v>
@@ -3483,13 +3477,13 @@
         <v>80369</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M41" s="7">
         <v>201</v>
@@ -3498,19 +3492,19 @@
         <v>210039</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="7">
         <v>300</v>
@@ -3519,13 +3513,13 @@
         <v>308827</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H42" s="7">
         <v>126</v>
@@ -3534,13 +3528,13 @@
         <v>130172</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M42" s="7">
         <v>426</v>
@@ -3549,13 +3543,13 @@
         <v>438999</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3564,13 @@
         <v>466638</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" s="7">
         <v>226</v>
@@ -3585,13 +3579,13 @@
         <v>236949</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M43" s="7">
         <v>679</v>
@@ -3600,13 +3594,13 @@
         <v>703587</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,28 +3617,28 @@
         <v>64157</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H44" s="7">
         <v>73</v>
       </c>
       <c r="I44" s="7">
-        <v>77507</v>
+        <v>77508</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M44" s="7">
         <v>131</v>
@@ -3653,13 +3647,13 @@
         <v>141665</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3668,13 @@
         <v>191827</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H45" s="7">
         <v>158</v>
@@ -3689,13 +3683,13 @@
         <v>167976</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M45" s="7">
         <v>340</v>
@@ -3704,13 +3698,13 @@
         <v>359803</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3719,13 @@
         <v>724712</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H46" s="7">
         <v>378</v>
@@ -3740,13 +3734,13 @@
         <v>392253</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M46" s="7">
         <v>1075</v>
@@ -3755,19 +3749,19 @@
         <v>1116965</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="7">
         <v>856</v>
@@ -3776,28 +3770,28 @@
         <v>893658</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H47" s="7">
         <v>358</v>
       </c>
       <c r="I47" s="7">
-        <v>371278</v>
+        <v>371279</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M47" s="7">
         <v>1214</v>
@@ -3806,13 +3800,13 @@
         <v>1264937</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,28 +3821,28 @@
         <v>1874354</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" s="7">
         <v>967</v>
       </c>
       <c r="I48" s="7">
-        <v>1009015</v>
+        <v>1009016</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M48" s="7">
         <v>2760</v>
@@ -3857,18 +3851,18 @@
         <v>2883369</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C580499-6CF9-4B8A-BBCA-7BEDF530B88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88CC9356-3DE4-4563-9E53-41606780A82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D6D8C920-844E-40FF-A9E9-3903B39B1D49}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{070FF026-AE34-42CB-A74C-7F822CD6DAE2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="329">
   <si>
     <t>Población según el nivel de informado que están con respecto a los riesgos que implican el uso de los materiales, instrumentos o productos que utiliza en su trabajo en 2007 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>12,13%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
   <si>
     <t>29,77%</t>
   </si>
   <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
   </si>
   <si>
     <t>Mal o insuficientemente informado</t>
@@ -104,28 +104,28 @@
     <t>24,26%</t>
   </si>
   <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
   </si>
   <si>
     <t>27,12%</t>
   </si>
   <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
   </si>
   <si>
     <t>25,41%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
   </si>
   <si>
     <t>Bien o suficientemente informado</t>
@@ -134,28 +134,28 @@
     <t>38,63%</t>
   </si>
   <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
   </si>
   <si>
     <t>28,05%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
   </si>
   <si>
     <t>34,37%</t>
   </si>
   <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
   </si>
   <si>
     <t>Bastante o muy bien informado</t>
@@ -164,28 +164,28 @@
     <t>24,98%</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,511 +197,514 @@
     <t>7,15%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
   </si>
   <si>
     <t>10,54%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
   </si>
   <si>
     <t>42,56%</t>
   </si>
   <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
     <t>30,72%</t>
   </si>
   <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>8,33%</t>
+    <t>7,71%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
   </si>
   <si>
     <t>46,12%</t>
   </si>
   <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
   </si>
   <si>
     <t>51,32%</t>
   </si>
   <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
+    <t>62,97%</t>
   </si>
   <si>
     <t>47,94%</t>
   </si>
   <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
   </si>
   <si>
     <t>34,2%</t>
   </si>
   <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
   </si>
   <si>
     <t>23,94%</t>
   </si>
   <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
   </si>
   <si>
     <t>30,61%</t>
   </si>
   <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -710,280 +713,274 @@
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>7,69%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>12,25%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
   </si>
   <si>
     <t>39,02%</t>
   </si>
   <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
   </si>
   <si>
     <t>41,7%</t>
   </si>
   <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
+    <t>46,35%</t>
   </si>
   <si>
     <t>51,03%</t>
   </si>
   <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
   </si>
   <si>
     <t>34,15%</t>
   </si>
   <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
   </si>
   <si>
     <t>45,16%</t>
   </si>
   <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
+    <t>2,95%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>4,89%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
   </si>
   <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
   </si>
   <si>
     <t>38,87%</t>
   </si>
   <si>
-    <t>35,83%</t>
+    <t>35,89%</t>
   </si>
   <si>
     <t>41,98%</t>
@@ -992,37 +989,37 @@
     <t>38,74%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
   </si>
   <si>
     <t>43,87%</t>
   </si>
   <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1437,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1822EED7-203A-4C1E-9099-720086BB4A01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8132D9B6-51B1-4AAD-B5DB-992E03FE4904}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2338,7 +2335,7 @@
         <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2347,13 +2344,13 @@
         <v>1917</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -2362,13 +2359,13 @@
         <v>9604</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2380,13 @@
         <v>35913</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -2398,13 +2395,13 @@
         <v>31696</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -2413,10 +2410,10 @@
         <v>67609</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>141</v>
@@ -2485,13 +2482,13 @@
         <v>67020</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -2500,13 +2497,13 @@
         <v>38002</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -2515,13 +2512,13 @@
         <v>105022</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,7 +2574,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2589,13 +2586,13 @@
         <v>895</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2607,10 +2604,10 @@
         <v>90</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -2619,13 +2616,13 @@
         <v>895</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2637,13 @@
         <v>964</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2658,10 +2655,10 @@
         <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2670,13 +2667,13 @@
         <v>964</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2688,13 @@
         <v>28363</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -2706,13 +2703,13 @@
         <v>9025</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -2721,13 +2718,13 @@
         <v>37388</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2739,13 @@
         <v>82809</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>38</v>
@@ -2757,13 +2754,13 @@
         <v>41401</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>120</v>
@@ -2772,13 +2769,13 @@
         <v>124210</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,7 +2831,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2846,13 +2843,13 @@
         <v>2841</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2861,13 +2858,13 @@
         <v>1982</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>90</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2876,13 +2873,13 @@
         <v>4823</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2894,13 @@
         <v>27096</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -2912,13 +2909,13 @@
         <v>18255</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>43</v>
@@ -2927,13 +2924,13 @@
         <v>45351</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2945,13 @@
         <v>70150</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>41</v>
@@ -2963,13 +2960,13 @@
         <v>41970</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>109</v>
@@ -2978,13 +2975,13 @@
         <v>112120</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2996,13 @@
         <v>52020</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
@@ -3014,13 +3011,13 @@
         <v>19582</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>68</v>
@@ -3029,13 +3026,13 @@
         <v>71601</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,7 +3088,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3103,13 +3100,13 @@
         <v>4966</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -3118,13 +3115,13 @@
         <v>5309</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -3133,13 +3130,13 @@
         <v>10276</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3151,13 @@
         <v>26881</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H35" s="7">
         <v>24</v>
@@ -3169,13 +3166,13 @@
         <v>27354</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M35" s="7">
         <v>49</v>
@@ -3184,13 +3181,13 @@
         <v>54235</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3202,13 @@
         <v>124974</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H36" s="7">
         <v>75</v>
@@ -3220,13 +3217,13 @@
         <v>79820</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M36" s="7">
         <v>194</v>
@@ -3235,13 +3232,13 @@
         <v>204794</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>246</v>
+        <v>156</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3253,13 @@
         <v>163432</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H37" s="7">
         <v>56</v>
@@ -3271,13 +3268,13 @@
         <v>58343</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>210</v>
@@ -3286,13 +3283,13 @@
         <v>221775</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,7 +3345,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3360,10 +3357,10 @@
         <v>7041</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>258</v>
+        <v>127</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>260</v>
@@ -3468,7 +3465,7 @@
         <v>277</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>278</v>
+        <v>43</v>
       </c>
       <c r="H41" s="7">
         <v>76</v>
@@ -3477,13 +3474,13 @@
         <v>80369</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M41" s="7">
         <v>201</v>
@@ -3492,13 +3489,13 @@
         <v>210039</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P41" s="7" t="s">
-        <v>283</v>
-      </c>
       <c r="Q41" s="7" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3510,13 @@
         <v>308827</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H42" s="7">
         <v>126</v>
@@ -3528,13 +3525,13 @@
         <v>130172</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M42" s="7">
         <v>426</v>
@@ -3543,13 +3540,13 @@
         <v>438999</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3614,13 @@
         <v>64157</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H44" s="7">
         <v>73</v>
@@ -3632,13 +3629,13 @@
         <v>77508</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M44" s="7">
         <v>131</v>
@@ -3647,13 +3644,13 @@
         <v>141665</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3665,13 @@
         <v>191827</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H45" s="7">
         <v>158</v>
@@ -3683,13 +3680,13 @@
         <v>167976</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M45" s="7">
         <v>340</v>
@@ -3698,13 +3695,13 @@
         <v>359803</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="P45" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3716,13 @@
         <v>724712</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H46" s="7">
         <v>378</v>
@@ -3734,13 +3731,13 @@
         <v>392253</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M46" s="7">
         <v>1075</v>
@@ -3749,13 +3746,13 @@
         <v>1116965</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3767,13 @@
         <v>893658</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H47" s="7">
         <v>358</v>
@@ -3785,13 +3782,13 @@
         <v>371279</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M47" s="7">
         <v>1214</v>
@@ -3800,13 +3797,13 @@
         <v>1264937</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,7 +3859,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88CC9356-3DE4-4563-9E53-41606780A82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66238A54-8B17-4BEF-BD29-B9035044FEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{070FF026-AE34-42CB-A74C-7F822CD6DAE2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CF1BF8BE-4992-47D6-90D0-F6F3A4B914E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1434,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8132D9B6-51B1-4AAD-B5DB-992E03FE4904}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A83B82-B573-4E88-8303-68E5D1A40696}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3626,7 +3626,7 @@
         <v>73</v>
       </c>
       <c r="I44" s="7">
-        <v>77508</v>
+        <v>77507</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>295</v>
@@ -3779,7 +3779,7 @@
         <v>358</v>
       </c>
       <c r="I47" s="7">
-        <v>371279</v>
+        <v>371278</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>322</v>
@@ -3830,7 +3830,7 @@
         <v>967</v>
       </c>
       <c r="I48" s="7">
-        <v>1009016</v>
+        <v>1009015</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>50</v>
